--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Ines Torres.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Ines Torres.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Fecha de Pago</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ines Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo - 13 dias</t>
   </si>
 </sst>
 </file>
@@ -417,6 +420,22 @@
         <v>-100000</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>816000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
